--- a/Modello/nuovi modelli/inputTesiOriginali/test5/DMU/dmu-31.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/DMU/dmu-31.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr filterPrivacy="1"/>
+  <workbookPr filterPrivacy="true"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
@@ -67,17 +67,12 @@
     <definedName name="SBM_7">ANNO1!$G$8</definedName>
     <definedName name="SBM_9">ANNO1!$G$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>soluzione1</t>
   </si>
@@ -122,13 +117,145 @@
   </si>
   <si>
     <t>HYBRID</t>
+  </si>
+  <si>
+    <t>179270</t>
+  </si>
+  <si>
+    <t>0.696469</t>
+  </si>
+  <si>
+    <t>1.60498</t>
+  </si>
+  <si>
+    <t>0.557462</t>
+  </si>
+  <si>
+    <t>1.79384</t>
+  </si>
+  <si>
+    <t>0.535303</t>
+  </si>
+  <si>
+    <t>0.278731</t>
+  </si>
+  <si>
+    <t>179281</t>
+  </si>
+  <si>
+    <t>1.00516e-009</t>
+  </si>
+  <si>
+    <t>0.371641</t>
+  </si>
+  <si>
+    <t>605338</t>
+  </si>
+  <si>
+    <t>0.429239</t>
+  </si>
+  <si>
+    <t>3.17142</t>
+  </si>
+  <si>
+    <t>0.244202</t>
+  </si>
+  <si>
+    <t>4.09496</t>
+  </si>
+  <si>
+    <t>0.223065</t>
+  </si>
+  <si>
+    <t>0.122101</t>
+  </si>
+  <si>
+    <t>92207.7</t>
+  </si>
+  <si>
+    <t>0.834859</t>
+  </si>
+  <si>
+    <t>1.31595</t>
+  </si>
+  <si>
+    <t>0.68968</t>
+  </si>
+  <si>
+    <t>1.44995</t>
+  </si>
+  <si>
+    <t>0.532948</t>
+  </si>
+  <si>
+    <t>0.34484</t>
+  </si>
+  <si>
+    <t>47719</t>
+  </si>
+  <si>
+    <t>0.901216</t>
+  </si>
+  <si>
+    <t>1.12581</t>
+  </si>
+  <si>
+    <t>0.878083</t>
+  </si>
+  <si>
+    <t>1.13885</t>
+  </si>
+  <si>
+    <t>0.763821</t>
+  </si>
+  <si>
+    <t>0.439041</t>
+  </si>
+  <si>
+    <t>0.791494</t>
+  </si>
+  <si>
+    <t>0.585388</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.899884</t>
+  </si>
+  <si>
+    <t>1.11125</t>
+  </si>
+  <si>
+    <t>0.82016</t>
+  </si>
+  <si>
+    <t>0.599923</t>
+  </si>
+  <si>
+    <t>0.786841</t>
+  </si>
+  <si>
+    <t>1.48979</t>
+  </si>
+  <si>
+    <t>0.562396</t>
+  </si>
+  <si>
+    <t>1.77811</t>
+  </si>
+  <si>
+    <t>0.523091</t>
+  </si>
+  <si>
+    <t>0.374931</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,14 +292,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -438,26 +557,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6640625" bestFit="true" customWidth="true"/>
+    <col min="2" max="2" width="8.77734375" bestFit="true" customWidth="true"/>
+    <col min="3" max="3" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="4" max="4" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="5" max="5" width="4.33203125" bestFit="true" customWidth="true"/>
+    <col min="6" max="6" width="6.33203125" bestFit="true" customWidth="true"/>
+    <col min="7" max="7" width="4.6640625" bestFit="true" customWidth="true"/>
+    <col min="8" max="8" width="7.21875" bestFit="true" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="B1" t="s">
         <v>8</v>
       </c>
@@ -480,44 +599,212 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/DMU/dmu-31.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/DMU/dmu-31.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>soluzione1</t>
   </si>
@@ -603,208 +603,208 @@
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
+      <c r="B2">
+        <v>179270.33944348327</v>
+      </c>
+      <c r="C2">
+        <v>0.69646897271034169</v>
+      </c>
+      <c r="D2">
+        <v>1.6049811850776055</v>
+      </c>
+      <c r="E2">
+        <v>0.55746194212600142</v>
+      </c>
+      <c r="F2">
+        <v>1.7938444303234122</v>
+      </c>
+      <c r="G2">
+        <v>0.53530325189855277</v>
+      </c>
+      <c r="H2">
+        <v>0.27873097106300071</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
-        <v>24</v>
+      <c r="B3">
+        <v>179281.27645770868</v>
+      </c>
+      <c r="C3">
+        <v>0.69646897271034169</v>
+      </c>
+      <c r="D3">
+        <v>1.6049811850776052</v>
+      </c>
+      <c r="E3">
+        <v>0.55746194212600142</v>
+      </c>
+      <c r="F3">
+        <v>1.7938444303234122</v>
+      </c>
+      <c r="G3">
+        <v>1.005164855263753e-009</v>
+      </c>
+      <c r="H3">
+        <v>0.37164129475066759</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>31</v>
+      <c r="B4">
+        <v>605337.73836119263</v>
+      </c>
+      <c r="C4">
+        <v>0.42923861700814525</v>
+      </c>
+      <c r="D4">
+        <v>3.171415485418652</v>
+      </c>
+      <c r="E4">
+        <v>0.24420245816845423</v>
+      </c>
+      <c r="F4">
+        <v>4.0949628742483268</v>
+      </c>
+      <c r="G4">
+        <v>0.22306494957880266</v>
+      </c>
+      <c r="H4">
+        <v>0.12210122908422712</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" t="s">
-        <v>37</v>
-      </c>
-      <c r="H5" t="s">
-        <v>38</v>
+      <c r="B5">
+        <v>92207.694492620765</v>
+      </c>
+      <c r="C5">
+        <v>0.83485879917624684</v>
+      </c>
+      <c r="D5">
+        <v>1.3159454855041366</v>
+      </c>
+      <c r="E5">
+        <v>0.68967952883147099</v>
+      </c>
+      <c r="F5">
+        <v>1.4499487924403196</v>
+      </c>
+      <c r="G5">
+        <v>0.53294773012657293</v>
+      </c>
+      <c r="H5">
+        <v>0.34483976441573549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" t="s">
-        <v>44</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
+      <c r="B6">
+        <v>47719.013627000488</v>
+      </c>
+      <c r="C6">
+        <v>0.90121592842270892</v>
+      </c>
+      <c r="D6">
+        <v>1.1258133724928072</v>
+      </c>
+      <c r="E6">
+        <v>0.87808252866443037</v>
+      </c>
+      <c r="F6">
+        <v>1.1388451168946583</v>
+      </c>
+      <c r="G6">
+        <v>0.7638209949189575</v>
+      </c>
+      <c r="H6">
+        <v>0.43904126433221519</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
+      <c r="B7">
+        <v>47719.013627000459</v>
+      </c>
+      <c r="C7">
+        <v>0.90121592791343619</v>
+      </c>
+      <c r="D7">
+        <v>1.1258133732436844</v>
+      </c>
+      <c r="E7">
+        <v>0.87808252809662846</v>
+      </c>
+      <c r="F7">
+        <v>1.138845117631079</v>
+      </c>
+      <c r="G7">
+        <v>0.79149439035738989</v>
+      </c>
+      <c r="H7">
+        <v>0.58538835206441908</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G8" t="s">
-        <v>51</v>
-      </c>
-      <c r="H8" t="s">
-        <v>52</v>
+      <c r="B8">
+        <v>47719.013627000459</v>
+      </c>
+      <c r="C8">
+        <v>0.90121592791343619</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0.89988409706275874</v>
+      </c>
+      <c r="F8">
+        <v>1.1112542195867463</v>
+      </c>
+      <c r="G8">
+        <v>0.82015956833824288</v>
+      </c>
+      <c r="H8">
+        <v>0.5999227313751726</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" t="s">
-        <v>58</v>
+      <c r="B9">
+        <v>92207.694492620809</v>
+      </c>
+      <c r="C9">
+        <v>0.78684061862076304</v>
+      </c>
+      <c r="D9">
+        <v>1.4897859558885651</v>
+      </c>
+      <c r="E9">
+        <v>0.56239617582034596</v>
+      </c>
+      <c r="F9">
+        <v>1.7781059740339413</v>
+      </c>
+      <c r="G9">
+        <v>0.52309085768799657</v>
+      </c>
+      <c r="H9">
+        <v>0.3749307838802306</v>
       </c>
     </row>
   </sheetData>

--- a/Modello/nuovi modelli/inputTesiOriginali/test5/DMU/dmu-31.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test5/DMU/dmu-31.xlsx
@@ -622,7 +622,7 @@
         <v>0.53530325189855277</v>
       </c>
       <c r="H2">
-        <v>0.27873097106300071</v>
+        <v>0.55746194212600142</v>
       </c>
     </row>
     <row r="3">
@@ -648,7 +648,7 @@
         <v>1.005164855263753e-009</v>
       </c>
       <c r="H3">
-        <v>0.37164129475066759</v>
+        <v>0.55746194212600142</v>
       </c>
     </row>
     <row r="4">
@@ -674,7 +674,7 @@
         <v>0.22306494957880266</v>
       </c>
       <c r="H4">
-        <v>0.12210122908422712</v>
+        <v>0.24420245816845423</v>
       </c>
     </row>
     <row r="5">
@@ -700,7 +700,7 @@
         <v>0.53294773012657293</v>
       </c>
       <c r="H5">
-        <v>0.34483976441573549</v>
+        <v>0.68967952883147099</v>
       </c>
     </row>
     <row r="6">
@@ -726,7 +726,7 @@
         <v>0.7638209949189575</v>
       </c>
       <c r="H6">
-        <v>0.43904126433221519</v>
+        <v>0.87808252866443037</v>
       </c>
     </row>
     <row r="7">
@@ -752,7 +752,7 @@
         <v>0.79149439035738989</v>
       </c>
       <c r="H7">
-        <v>0.58538835206441908</v>
+        <v>0.87808252809662846</v>
       </c>
     </row>
     <row r="8">
@@ -778,7 +778,7 @@
         <v>0.82015956833824288</v>
       </c>
       <c r="H8">
-        <v>0.5999227313751726</v>
+        <v>0.89988409706275874</v>
       </c>
     </row>
     <row r="9">
@@ -804,7 +804,7 @@
         <v>0.52309085768799657</v>
       </c>
       <c r="H9">
-        <v>0.3749307838802306</v>
+        <v>0.56239617582034596</v>
       </c>
     </row>
   </sheetData>
